--- a/file/doc/库存管理表字段.xlsx
+++ b/file/doc/库存管理表字段.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11820" yWindow="3885" windowWidth="33600" windowHeight="12285" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="11820" yWindow="3885" windowWidth="33600" windowHeight="12285" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="supplier_info" sheetId="1" r:id="rId1"/>
-    <sheet name="front_desk_charge" sheetId="2" r:id="rId2"/>
-    <sheet name="stock_info " sheetId="3" r:id="rId3"/>
-    <sheet name="shipped_info" sheetId="4" r:id="rId4"/>
+    <sheet name="supplier_info_供应商信息表" sheetId="1" r:id="rId1"/>
+    <sheet name="front_desk_charge_前台收费" sheetId="2" r:id="rId2"/>
+    <sheet name="stock_info_库存信息表" sheetId="3" r:id="rId3"/>
+    <sheet name="shipped_info_出库表" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="191">
   <si>
     <t>字段</t>
     <rPh sb="0" eb="1">
@@ -1380,7 +1380,7 @@
   <dimension ref="C4:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1502,8 +1502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E7:I18"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1553,8 +1553,12 @@
       <c r="F9" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="G9" s="1">
+        <v>64</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="5:9" ht="42" customHeight="1">
@@ -1693,6 +1697,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1700,7 +1705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F10:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B41" workbookViewId="0">
+    <sheetView topLeftCell="B17" workbookViewId="0">
       <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
@@ -2413,8 +2418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F10:J38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>

--- a/file/doc/库存管理表字段.xlsx
+++ b/file/doc/库存管理表字段.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20349"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\src\wms-core\file\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src\wms-core\file\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CCA706-58CC-43A9-9B9E-34E398BCF5E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11820" yWindow="3885" windowWidth="33600" windowHeight="12285" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="11820" yWindow="3888" windowWidth="33600" windowHeight="12288" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="supplier_info_供应商信息表" sheetId="1" r:id="rId1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="193">
   <si>
     <t>字段</t>
     <rPh sb="0" eb="1">
@@ -1024,13 +1025,21 @@
   </si>
   <si>
     <t>decla_currency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stock_weigh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总库存净重</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -1376,17 +1385,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C4:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="3" max="5" width="23.875" customWidth="1"/>
-    <col min="6" max="6" width="22.5" customWidth="1"/>
+    <col min="3" max="5" width="23.90625" customWidth="1"/>
+    <col min="6" max="6" width="22.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:7">
@@ -1421,7 +1430,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="3:7" ht="27.95" customHeight="1">
+    <row r="6" spans="3:7" ht="27.9" customHeight="1">
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1499,19 +1508,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="E7:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="5" max="5" width="25.875" customWidth="1"/>
+    <col min="5" max="5" width="25.90625" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="20.5" customWidth="1"/>
-    <col min="8" max="8" width="22.625" customWidth="1"/>
+    <col min="7" max="7" width="20.453125" customWidth="1"/>
+    <col min="8" max="8" width="22.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="5:9" ht="27" customHeight="1">
@@ -1531,7 +1540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="5:9" ht="30.95" customHeight="1">
+    <row r="8" spans="5:9" ht="30.9" customHeight="1">
       <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1546,7 +1555,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="5:9" ht="30.95" customHeight="1">
+    <row r="9" spans="5:9" ht="30.9" customHeight="1">
       <c r="E9" s="1" t="s">
         <v>145</v>
       </c>
@@ -1591,7 +1600,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="5:9" ht="33.950000000000003" customHeight="1">
+    <row r="12" spans="5:9" ht="33.9" customHeight="1">
       <c r="E12" s="1" t="s">
         <v>149</v>
       </c>
@@ -1606,7 +1615,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="5:9" ht="33.950000000000003" customHeight="1">
+    <row r="13" spans="5:9" ht="33.9" customHeight="1">
       <c r="E13" s="1" t="s">
         <v>150</v>
       </c>
@@ -1623,7 +1632,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="5:9" ht="33.950000000000003" customHeight="1">
+    <row r="14" spans="5:9" ht="33.9" customHeight="1">
       <c r="E14" s="1" t="s">
         <v>151</v>
       </c>
@@ -1638,7 +1647,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="5:9" ht="33.950000000000003" customHeight="1">
+    <row r="15" spans="5:9" ht="33.9" customHeight="1">
       <c r="E15" s="1" t="s">
         <v>152</v>
       </c>
@@ -1653,7 +1662,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="5:9" ht="33.950000000000003" customHeight="1">
+    <row r="16" spans="5:9" ht="33.9" customHeight="1">
       <c r="E16" s="1" t="s">
         <v>153</v>
       </c>
@@ -1666,7 +1675,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="5:9" ht="33.950000000000003" customHeight="1">
+    <row r="17" spans="5:9" ht="33.9" customHeight="1">
       <c r="E17" s="1" t="s">
         <v>23</v>
       </c>
@@ -1679,7 +1688,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="5:9" ht="33.950000000000003" customHeight="1">
+    <row r="18" spans="5:9" ht="33.9" customHeight="1">
       <c r="E18" s="1" t="s">
         <v>154</v>
       </c>
@@ -1702,20 +1711,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F10:L57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="F10:L58"/>
   <sheetViews>
-    <sheetView topLeftCell="B17" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="B29" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="6" max="6" width="30.5" customWidth="1"/>
-    <col min="7" max="7" width="20.625" customWidth="1"/>
-    <col min="8" max="8" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="30.453125" customWidth="1"/>
+    <col min="7" max="7" width="20.6328125" customWidth="1"/>
+    <col min="8" max="8" width="17.08984375" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="17.625" customWidth="1"/>
+    <col min="10" max="10" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="10" spans="6:10" ht="29.1" customHeight="1">
@@ -1767,7 +1776,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="6:10" ht="30.95" customHeight="1">
+    <row r="13" spans="6:10" ht="30.9" customHeight="1">
       <c r="F13" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,7 +1810,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="6:10" ht="27.95" customHeight="1">
+    <row r="15" spans="6:10" ht="27.9" customHeight="1">
       <c r="F15" s="1" t="s">
         <v>157</v>
       </c>
@@ -1818,7 +1827,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="6:10" ht="33.950000000000003" customHeight="1">
+    <row r="16" spans="6:10" ht="33.9" customHeight="1">
       <c r="F16" s="1" t="s">
         <v>158</v>
       </c>
@@ -1869,7 +1878,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="6:12" ht="33.950000000000003" customHeight="1">
+    <row r="19" spans="6:12" ht="33.9" customHeight="1">
       <c r="F19" s="1" t="s">
         <v>161</v>
       </c>
@@ -2187,12 +2196,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="6:10" ht="29.1" customHeight="1">
+    <row r="40" spans="6:10" ht="27" customHeight="1">
       <c r="F40" s="1" t="s">
-        <v>81</v>
+        <v>191</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>84</v>
+        <v>192</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1" t="s">
@@ -2202,203 +2211,211 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="6:10" ht="27" customHeight="1">
+    <row r="41" spans="6:10" ht="29.1" customHeight="1">
       <c r="F41" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="6:10" ht="29.1" customHeight="1">
+    <row r="42" spans="6:10" ht="27" customHeight="1">
       <c r="F42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="6:10" ht="29.1" customHeight="1">
+      <c r="F43" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="6:10" ht="27" customHeight="1">
-      <c r="F43" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="44" spans="6:10" ht="29.1" customHeight="1">
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="6:10" ht="27" customHeight="1">
       <c r="F44" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="45" spans="6:10" ht="27" customHeight="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="6:10" ht="29.1" customHeight="1">
       <c r="F45" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>185</v>
+        <v>95</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="46" spans="6:10" ht="29.1" customHeight="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="6:10" ht="27" customHeight="1">
       <c r="F46" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>98</v>
+        <v>185</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="47" spans="6:10" ht="27" customHeight="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="6:10" ht="29.1" customHeight="1">
       <c r="F47" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="48" spans="6:10" ht="29.1" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="6:10" ht="27" customHeight="1">
       <c r="F48" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="49" spans="6:10" ht="27" customHeight="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="6:10" ht="29.1" customHeight="1">
       <c r="F49" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="50" spans="6:10" ht="29.1" customHeight="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="6:10" ht="27" customHeight="1">
       <c r="F50" s="1" t="s">
-        <v>104</v>
+        <v>190</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="51" spans="6:10" ht="27" customHeight="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="6:10" ht="29.1" customHeight="1">
       <c r="F51" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="52" spans="6:10" ht="29.1" customHeight="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="6:10" ht="27" customHeight="1">
       <c r="F52" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="53" spans="6:10" ht="27" customHeight="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="6:10" ht="29.1" customHeight="1">
       <c r="F53" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="54" spans="6:10" ht="29.1" customHeight="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="6:10" ht="27" customHeight="1">
       <c r="F54" s="1" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-    </row>
-    <row r="55" spans="6:10" ht="27" customHeight="1">
+      <c r="J54" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="6:10" ht="29.1" customHeight="1">
       <c r="F55" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
     <row r="56" spans="6:10" ht="27" customHeight="1">
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
+      <c r="F56" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
     </row>
     <row r="57" spans="6:10" ht="27" customHeight="1">
       <c r="F57" s="4"/>
@@ -2406,6 +2423,13 @@
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
+    </row>
+    <row r="58" spans="6:10" ht="27" customHeight="1">
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2415,20 +2439,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="F10:J38"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="6" max="6" width="30.5" customWidth="1"/>
-    <col min="7" max="7" width="20.625" customWidth="1"/>
-    <col min="8" max="8" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="30.453125" customWidth="1"/>
+    <col min="7" max="7" width="20.6328125" customWidth="1"/>
+    <col min="8" max="8" width="17.08984375" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="17.625" customWidth="1"/>
+    <col min="10" max="10" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="10" spans="6:10" ht="29.1" customHeight="1">
@@ -2463,7 +2487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="6:10" ht="30.95" customHeight="1">
+    <row r="12" spans="6:10" ht="30.9" customHeight="1">
       <c r="F12" s="1" t="s">
         <v>32</v>
       </c>
@@ -2497,7 +2521,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="6:10" ht="27.95" customHeight="1">
+    <row r="14" spans="6:10" ht="27.9" customHeight="1">
       <c r="F14" s="1" t="s">
         <v>36</v>
       </c>
@@ -2514,7 +2538,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="6:10" ht="27.95" customHeight="1">
+    <row r="15" spans="6:10" ht="27.9" customHeight="1">
       <c r="F15" s="1" t="s">
         <v>123</v>
       </c>
@@ -2527,7 +2551,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="6:10" ht="27.95" customHeight="1">
+    <row r="16" spans="6:10" ht="27.9" customHeight="1">
       <c r="F16" s="1" t="s">
         <v>124</v>
       </c>
@@ -2540,7 +2564,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="6:10" ht="27.95" customHeight="1">
+    <row r="17" spans="6:10" ht="27.9" customHeight="1">
       <c r="F17" s="1" t="s">
         <v>125</v>
       </c>
@@ -2628,7 +2652,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="6:10" ht="33.950000000000003" customHeight="1">
+    <row r="23" spans="6:10" ht="33.9" customHeight="1">
       <c r="F23" s="1" t="s">
         <v>31</v>
       </c>
@@ -2816,7 +2840,7 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="6:10" ht="27.95" customHeight="1">
+    <row r="37" spans="6:10" ht="27.9" customHeight="1">
       <c r="F37" s="1" t="s">
         <v>137</v>
       </c>

--- a/file/doc/库存管理表字段.xlsx
+++ b/file/doc/库存管理表字段.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20349"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src\wms-core\file\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\src\wms-core\file\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CCA706-58CC-43A9-9B9E-34E398BCF5E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11820" yWindow="3888" windowWidth="33600" windowHeight="12288" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11820" yWindow="3885" windowWidth="33600" windowHeight="12285" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="supplier_info_供应商信息表" sheetId="1" r:id="rId1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="199">
   <si>
     <t>字段</t>
     <rPh sb="0" eb="1">
@@ -804,242 +803,266 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>create_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inbound_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入仓编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cust_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plate_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settlement_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enter_gate_fee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customs_declaration_fee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supplier_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>po</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sku</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inbound_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customs_meterial_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rcvd_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rcvd_ctns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rcvd_pcs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>items_per_box</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gw_per_box_actul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gw_all_actul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>box_length_actul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实测外箱长L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实测外箱宽W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>box_high_actul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实测外箱高H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>box_per_volume_actul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实测单箱体积cbm/ctn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>box_all_volume_actul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customs_declaration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shipped_gw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总出仓净重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总出仓体积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总库存件数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stock_gw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customs_merch_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merch_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申报数量/成交数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decla_unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decla_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decla_unit_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decla_total_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decla_currency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stock_weigh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总库存净重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>custs_decla_piece_weigh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>custs_decla_all_weigh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单件净重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出仓总净重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asn-单件净重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>车型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>create_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>update_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inbound_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入仓编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cust_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>project_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plate_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settlement_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enter_gate_fee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>customs_declaration_fee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>supplier_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>po</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sku</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inbound_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>customs_meterial_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rcvd_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rcvd_ctns</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rcvd_pcs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>items_per_box</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gw_per_box_actul</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gw_all_actul</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>box_length_actul</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实测外箱长L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实测外箱宽W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>box_high_actul</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实测外箱高H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>box_per_volume_actul</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实测单箱体积cbm/ctn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>box_all_volume_actul</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>customs_declaration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>custs_decla_piece_weigh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>custs_decla_all_weigh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shipped_gw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总出仓净重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总出仓体积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总库存件数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stock_gw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>customs_merch_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>merch_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申报数量/成交数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decla_unit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decla_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decla_unit_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decla_total_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decla_currency</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stock_weigh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总库存净重</t>
+    <t>piece_weigh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shipped_all_weigh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -1385,17 +1408,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="5" width="23.90625" customWidth="1"/>
-    <col min="6" max="6" width="22.453125" customWidth="1"/>
+    <col min="3" max="5" width="23.875" customWidth="1"/>
+    <col min="6" max="6" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:7">
@@ -1417,7 +1440,7 @@
     </row>
     <row r="5" spans="3:7" ht="26.1" customHeight="1">
       <c r="C5" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1">
@@ -1430,7 +1453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="3:7" ht="27.9" customHeight="1">
+    <row r="6" spans="3:7" ht="27.95" customHeight="1">
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1508,19 +1531,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E7:I18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="5" max="5" width="25.90625" customWidth="1"/>
+    <col min="5" max="5" width="25.875" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="20.453125" customWidth="1"/>
-    <col min="8" max="8" width="22.6328125" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="8" max="8" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="5:9" ht="27" customHeight="1">
@@ -1540,7 +1563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="5:9" ht="30.9" customHeight="1">
+    <row r="8" spans="5:9" ht="30.95" customHeight="1">
       <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1555,12 +1578,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="5:9" ht="30.9" customHeight="1">
+    <row r="9" spans="5:9" ht="30.95" customHeight="1">
       <c r="E9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="G9" s="1">
         <v>64</v>
@@ -1572,7 +1595,7 @@
     </row>
     <row r="10" spans="5:9" ht="42" customHeight="1">
       <c r="E10" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>8</v>
@@ -1587,7 +1610,7 @@
     </row>
     <row r="11" spans="5:9" ht="36" customHeight="1">
       <c r="E11" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>12</v>
@@ -1600,9 +1623,9 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="5:9" ht="33.9" customHeight="1">
+    <row r="12" spans="5:9" ht="33.950000000000003" customHeight="1">
       <c r="E12" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>15</v>
@@ -1615,9 +1638,9 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="5:9" ht="33.9" customHeight="1">
+    <row r="13" spans="5:9" ht="33.950000000000003" customHeight="1">
       <c r="E13" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>18</v>
@@ -1632,9 +1655,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="5:9" ht="33.9" customHeight="1">
+    <row r="14" spans="5:9" ht="33.950000000000003" customHeight="1">
       <c r="E14" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>16</v>
@@ -1647,9 +1670,9 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="5:9" ht="33.9" customHeight="1">
+    <row r="15" spans="5:9" ht="33.950000000000003" customHeight="1">
       <c r="E15" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>17</v>
@@ -1662,9 +1685,9 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="5:9" ht="33.9" customHeight="1">
+    <row r="16" spans="5:9" ht="33.950000000000003" customHeight="1">
       <c r="E16" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>28</v>
@@ -1675,7 +1698,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="5:9" ht="33.9" customHeight="1">
+    <row r="17" spans="5:9" ht="33.950000000000003" customHeight="1">
       <c r="E17" s="1" t="s">
         <v>23</v>
       </c>
@@ -1688,9 +1711,9 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="5:9" ht="33.9" customHeight="1">
+    <row r="18" spans="5:9" ht="33.950000000000003" customHeight="1">
       <c r="E18" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>30</v>
@@ -1711,20 +1734,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F10:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B29" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView topLeftCell="B32" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="6" max="6" width="30.453125" customWidth="1"/>
-    <col min="7" max="7" width="20.6328125" customWidth="1"/>
-    <col min="8" max="8" width="17.08984375" customWidth="1"/>
+    <col min="6" max="6" width="30.5" customWidth="1"/>
+    <col min="7" max="7" width="20.625" customWidth="1"/>
+    <col min="8" max="8" width="17.125" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="17.6328125" customWidth="1"/>
+    <col min="10" max="10" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="10" spans="6:10" ht="29.1" customHeight="1">
@@ -1761,7 +1784,7 @@
     </row>
     <row r="12" spans="6:10" ht="35.1" customHeight="1">
       <c r="F12" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>13</v>
@@ -1776,7 +1799,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="6:10" ht="30.9" customHeight="1">
+    <row r="13" spans="6:10" ht="30.95" customHeight="1">
       <c r="F13" s="1" t="s">
         <v>32</v>
       </c>
@@ -1795,7 +1818,7 @@
     </row>
     <row r="14" spans="6:10" ht="29.1" customHeight="1">
       <c r="F14" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>35</v>
@@ -1810,9 +1833,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="6:10" ht="27.9" customHeight="1">
+    <row r="15" spans="6:10" ht="27.95" customHeight="1">
       <c r="F15" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>37</v>
@@ -1827,9 +1850,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="6:10" ht="33.9" customHeight="1">
+    <row r="16" spans="6:10" ht="33.950000000000003" customHeight="1">
       <c r="F16" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>14</v>
@@ -1846,7 +1869,7 @@
     </row>
     <row r="17" spans="6:12" ht="26.1" customHeight="1">
       <c r="F17" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>39</v>
@@ -1863,7 +1886,7 @@
     </row>
     <row r="18" spans="6:12" ht="24" customHeight="1">
       <c r="F18" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>40</v>
@@ -1878,9 +1901,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="6:12" ht="33.9" customHeight="1">
+    <row r="19" spans="6:12" ht="33.950000000000003" customHeight="1">
       <c r="F19" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>41</v>
@@ -1895,7 +1918,7 @@
     </row>
     <row r="20" spans="6:12" ht="29.1" customHeight="1">
       <c r="F20" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>42</v>
@@ -1910,7 +1933,7 @@
     </row>
     <row r="21" spans="6:12" ht="29.1" customHeight="1">
       <c r="F21" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>43</v>
@@ -1925,7 +1948,7 @@
     </row>
     <row r="22" spans="6:12" ht="29.1" customHeight="1">
       <c r="F22" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>45</v>
@@ -1940,7 +1963,7 @@
     </row>
     <row r="23" spans="6:12" ht="27" customHeight="1">
       <c r="F23" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>46</v>
@@ -1955,10 +1978,10 @@
     </row>
     <row r="24" spans="6:12" ht="29.1" customHeight="1">
       <c r="F24" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1" t="s">
@@ -1973,7 +1996,7 @@
         <v>47</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1" t="s">
@@ -1985,10 +2008,10 @@
     </row>
     <row r="26" spans="6:12" ht="29.1" customHeight="1">
       <c r="F26" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
@@ -2000,10 +2023,10 @@
     </row>
     <row r="27" spans="6:12" ht="27" customHeight="1">
       <c r="F27" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
@@ -2015,7 +2038,7 @@
     </row>
     <row r="28" spans="6:12" ht="29.1" customHeight="1">
       <c r="F28" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>62</v>
@@ -2030,7 +2053,7 @@
     </row>
     <row r="29" spans="6:12" ht="27" customHeight="1">
       <c r="F29" s="1" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>66</v>
@@ -2043,12 +2066,12 @@
         <v>65</v>
       </c>
       <c r="L29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="6:12" ht="29.1" customHeight="1">
       <c r="F30" s="1" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>67</v>
@@ -2066,7 +2089,7 @@
         <v>68</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1" t="s">
@@ -2108,7 +2131,7 @@
     </row>
     <row r="34" spans="6:10" ht="29.1" customHeight="1">
       <c r="F34" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>77</v>
@@ -2126,7 +2149,7 @@
         <v>76</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1" t="s">
@@ -2141,7 +2164,7 @@
         <v>80</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1" t="s">
@@ -2171,7 +2194,7 @@
         <v>79</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1" t="s">
@@ -2183,7 +2206,7 @@
     </row>
     <row r="39" spans="6:10" ht="27" customHeight="1">
       <c r="F39" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>83</v>
@@ -2198,10 +2221,10 @@
     </row>
     <row r="40" spans="6:10" ht="27" customHeight="1">
       <c r="F40" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1" t="s">
@@ -2254,7 +2277,7 @@
     </row>
     <row r="44" spans="6:10" ht="27" customHeight="1">
       <c r="F44" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>96</v>
@@ -2267,7 +2290,7 @@
     </row>
     <row r="45" spans="6:10" ht="29.1" customHeight="1">
       <c r="F45" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>95</v>
@@ -2280,10 +2303,10 @@
     </row>
     <row r="46" spans="6:10" ht="27" customHeight="1">
       <c r="F46" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -2293,7 +2316,7 @@
     </row>
     <row r="47" spans="6:10" ht="29.1" customHeight="1">
       <c r="F47" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>98</v>
@@ -2306,7 +2329,7 @@
     </row>
     <row r="48" spans="6:10" ht="27" customHeight="1">
       <c r="F48" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>99</v>
@@ -2319,7 +2342,7 @@
     </row>
     <row r="49" spans="6:10" ht="29.1" customHeight="1">
       <c r="F49" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>100</v>
@@ -2332,7 +2355,7 @@
     </row>
     <row r="50" spans="6:10" ht="27" customHeight="1">
       <c r="F50" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>103</v>
@@ -2397,10 +2420,10 @@
     </row>
     <row r="55" spans="6:10" ht="29.1" customHeight="1">
       <c r="F55" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -2408,10 +2431,10 @@
     </row>
     <row r="56" spans="6:10" ht="27" customHeight="1">
       <c r="F56" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -2439,20 +2462,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="F10:J38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F10:J40"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="6" max="6" width="30.453125" customWidth="1"/>
-    <col min="7" max="7" width="20.6328125" customWidth="1"/>
-    <col min="8" max="8" width="17.08984375" customWidth="1"/>
+    <col min="6" max="6" width="30.5" customWidth="1"/>
+    <col min="7" max="7" width="20.625" customWidth="1"/>
+    <col min="8" max="8" width="17.125" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="17.6328125" customWidth="1"/>
+    <col min="10" max="10" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="10" spans="6:10" ht="29.1" customHeight="1">
@@ -2487,7 +2510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="6:10" ht="30.9" customHeight="1">
+    <row r="12" spans="6:10" ht="30.95" customHeight="1">
       <c r="F12" s="1" t="s">
         <v>32</v>
       </c>
@@ -2521,7 +2544,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="6:10" ht="27.9" customHeight="1">
+    <row r="14" spans="6:10" ht="27.95" customHeight="1">
       <c r="F14" s="1" t="s">
         <v>36</v>
       </c>
@@ -2538,7 +2561,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="6:10" ht="27.9" customHeight="1">
+    <row r="15" spans="6:10" ht="27.95" customHeight="1">
       <c r="F15" s="1" t="s">
         <v>123</v>
       </c>
@@ -2551,7 +2574,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="6:10" ht="27.9" customHeight="1">
+    <row r="16" spans="6:10" ht="27.95" customHeight="1">
       <c r="F16" s="1" t="s">
         <v>124</v>
       </c>
@@ -2564,7 +2587,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="6:10" ht="27.9" customHeight="1">
+    <row r="17" spans="6:10" ht="27.95" customHeight="1">
       <c r="F17" s="1" t="s">
         <v>125</v>
       </c>
@@ -2652,7 +2675,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="6:10" ht="33.9" customHeight="1">
+    <row r="23" spans="6:10" ht="33.950000000000003" customHeight="1">
       <c r="F23" s="1" t="s">
         <v>31</v>
       </c>
@@ -2818,45 +2841,71 @@
     </row>
     <row r="35" spans="6:10" ht="29.1" customHeight="1">
       <c r="F35" s="1" t="s">
-        <v>134</v>
+        <v>197</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="6:10" ht="29.1" customHeight="1">
       <c r="F36" s="1" t="s">
-        <v>136</v>
+        <v>198</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="6:10" ht="27.9" customHeight="1">
+      <c r="J36" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="37" spans="6:10" ht="29.1" customHeight="1">
       <c r="F37" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>139</v>
+        <v>196</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="6:10" ht="27" customHeight="1">
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
+      <c r="J37" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="6:10" ht="29.1" customHeight="1">
+      <c r="F38" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="6:10" ht="27.95" customHeight="1">
+      <c r="F39" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="6:10" ht="27" customHeight="1">
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/file/doc/库存管理表字段.xlsx
+++ b/file/doc/库存管理表字段.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11820" yWindow="3885" windowWidth="33600" windowHeight="12285" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="11820" yWindow="3885" windowWidth="33600" windowHeight="12285" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="supplier_info_供应商信息表" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="stock_info_库存信息表" sheetId="3" r:id="rId3"/>
     <sheet name="shipped_info_出库表" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="216">
   <si>
     <t>字段</t>
     <rPh sb="0" eb="1">
@@ -255,16 +255,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>创建时间</t>
-    <rPh sb="0" eb="1">
-      <t>chuang jian</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shi jian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>更新时间</t>
     <rPh sb="0" eb="1">
       <t>geng xin</t>
@@ -843,219 +833,291 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>settlement_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enter_gate_fee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customs_declaration_fee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supplier_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>po</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sku</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inbound_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customs_meterial_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rcvd_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rcvd_ctns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rcvd_pcs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>items_per_box</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gw_per_box_actul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gw_all_actul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>box_length_actul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实测外箱长L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实测外箱宽W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>box_high_actul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实测外箱高H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>box_per_volume_actul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实测单箱体积cbm/ctn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>box_all_volume_actul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customs_declaration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shipped_gw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总出仓净重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总出仓体积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总库存件数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stock_gw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customs_merch_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merch_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申报数量/成交数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decla_unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decla_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decla_unit_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decla_total_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decla_currency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stock_weigh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总库存净重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>custs_decla_piece_weigh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>custs_decla_all_weigh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单件净重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出仓总净重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asn-单件净重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>piece_weigh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shipped_all_weigh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tran_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入当天日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bill_one_car</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一车几单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>so</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>落货纸号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收据编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>入仓编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>receipt_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>cust_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>factory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工厂名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收费日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>project_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>plate_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settlement_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enter_gate_fee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>customs_declaration_fee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>supplier_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>po</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sku</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inbound_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>customs_meterial_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rcvd_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rcvd_ctns</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rcvd_pcs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>items_per_box</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gw_per_box_actul</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gw_all_actul</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>box_length_actul</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实测外箱长L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实测外箱宽W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>box_high_actul</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实测外箱高H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>box_per_volume_actul</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实测单箱体积cbm/ctn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>box_all_volume_actul</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>customs_declaration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shipped_gw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总出仓净重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总出仓体积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总库存件数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stock_gw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>customs_merch_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>merch_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申报数量/成交数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decla_unit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decla_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decla_unit_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decla_total_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decla_currency</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stock_weigh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总库存净重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>custs_decla_piece_weigh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>custs_decla_all_weigh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单件净重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出仓总净重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asn-单件净重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>车型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>piece_weigh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shipped_all_weigh</t>
+    <t>pay_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 现金 1 微信支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>car_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rec_amt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代收款合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1094,7 +1156,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1117,11 +1179,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1129,6 +1202,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1440,7 +1514,7 @@
     </row>
     <row r="5" spans="3:7" ht="26.1" customHeight="1">
       <c r="C5" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1">
@@ -1532,10 +1606,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E7:I18"/>
+  <dimension ref="E7:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1580,10 +1654,10 @@
     </row>
     <row r="9" spans="5:9" ht="30.95" customHeight="1">
       <c r="E9" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>145</v>
+        <v>203</v>
       </c>
       <c r="G9" s="1">
         <v>64</v>
@@ -1593,136 +1667,234 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="5:9" ht="42" customHeight="1">
+    <row r="10" spans="5:9" ht="30.95" customHeight="1">
       <c r="E10" s="1" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G10" s="1">
+        <v>64</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="5:9" ht="30.95" customHeight="1">
+      <c r="E11" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G11" s="1">
+        <v>64</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="5:9" ht="42" customHeight="1">
+      <c r="E12" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G12" s="1">
         <v>128</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="5:9" ht="36" customHeight="1">
-      <c r="E11" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="H12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="5:9" ht="42" customHeight="1">
+      <c r="E13" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G13" s="1">
+        <v>128</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="5:9" ht="42" customHeight="1">
+      <c r="E14" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G14" s="1">
+        <v>16</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="5:9" ht="36" customHeight="1">
+      <c r="E15" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G15" s="1">
         <v>128</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="5:9" ht="33.950000000000003" customHeight="1">
-      <c r="E12" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="1">
-        <v>32</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="5:9" ht="33.950000000000003" customHeight="1">
-      <c r="E13" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="5:9" ht="33.950000000000003" customHeight="1">
-      <c r="E14" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="5:9" ht="33.950000000000003" customHeight="1">
-      <c r="E15" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="H15" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="5:9" ht="33.950000000000003" customHeight="1">
+    <row r="16" spans="5:9" ht="36" customHeight="1">
       <c r="E16" s="1" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1" t="s">
-        <v>6</v>
+        <v>197</v>
+      </c>
+      <c r="G16" s="5">
+        <v>10</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="5:9" ht="33.950000000000003" customHeight="1">
+    <row r="17" spans="5:9" ht="36" customHeight="1">
       <c r="E17" s="1" t="s">
-        <v>23</v>
+        <v>210</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" s="1"/>
+        <v>211</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="18" spans="5:9" ht="33.950000000000003" customHeight="1">
       <c r="E18" s="1" t="s">
-        <v>153</v>
+        <v>213</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="G18" s="1">
+        <v>32</v>
+      </c>
       <c r="H18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="5:9" ht="33.950000000000003" customHeight="1">
+      <c r="E19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9" ht="33.950000000000003" customHeight="1">
+      <c r="E20" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="5:9" ht="33.950000000000003" customHeight="1">
+      <c r="E21" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="5:9" ht="33.950000000000003" customHeight="1">
+      <c r="E22" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="5:9" ht="33.950000000000003" customHeight="1">
+      <c r="E23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="5:9" ht="33.950000000000003" customHeight="1">
+      <c r="E24" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="1">
         <v>20190824</v>
       </c>
     </row>
@@ -1784,7 +1956,7 @@
     </row>
     <row r="12" spans="6:10" ht="35.1" customHeight="1">
       <c r="F12" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>13</v>
@@ -1796,15 +1968,15 @@
         <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="6:10" ht="30.95" customHeight="1">
       <c r="F13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="H13" s="1">
         <v>32</v>
@@ -1813,15 +1985,15 @@
         <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="6:10" ht="29.1" customHeight="1">
       <c r="F14" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H14" s="1">
         <v>32</v>
@@ -1830,15 +2002,15 @@
         <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="6:10" ht="27.95" customHeight="1">
       <c r="F15" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15" s="1">
         <v>32</v>
@@ -1847,12 +2019,12 @@
         <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="6:10" ht="33.950000000000003" customHeight="1">
       <c r="F16" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>14</v>
@@ -1864,15 +2036,15 @@
         <v>6</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="6:12" ht="26.1" customHeight="1">
       <c r="F17" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H17" s="1">
         <v>32</v>
@@ -1881,15 +2053,15 @@
         <v>6</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="6:12" ht="24" customHeight="1">
       <c r="F18" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H18" s="1">
         <v>8</v>
@@ -1898,378 +2070,378 @@
         <v>6</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="6:12" ht="33.950000000000003" customHeight="1">
       <c r="F19" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="6:12" ht="29.1" customHeight="1">
       <c r="F20" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="6:12" ht="29.1" customHeight="1">
       <c r="F21" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="6:12" ht="29.1" customHeight="1">
       <c r="F22" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="6:12" ht="27" customHeight="1">
       <c r="F23" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="6:12" ht="29.1" customHeight="1">
       <c r="F24" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="6:12" ht="27" customHeight="1">
       <c r="F25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="6:12" ht="29.1" customHeight="1">
       <c r="F26" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="6:12" ht="27" customHeight="1">
       <c r="F27" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="6:12" ht="29.1" customHeight="1">
       <c r="F28" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="6:12" ht="27" customHeight="1">
       <c r="F29" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L29" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="6:12" ht="29.1" customHeight="1">
       <c r="F30" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="6:12" ht="27" customHeight="1">
       <c r="F31" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="6:12" ht="29.1" customHeight="1">
       <c r="F32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="6:10" ht="27" customHeight="1">
       <c r="F33" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="6:10" ht="29.1" customHeight="1">
       <c r="F34" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="6:10" ht="27" customHeight="1">
       <c r="F35" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="6:10" ht="29.1" customHeight="1">
       <c r="F36" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="6:10" ht="27" customHeight="1">
       <c r="F37" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="6:10" ht="29.1" customHeight="1">
       <c r="F38" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="6:10" ht="27" customHeight="1">
       <c r="F39" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="6:10" ht="27" customHeight="1">
       <c r="F40" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="6:10" ht="29.1" customHeight="1">
       <c r="F41" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="6:10" ht="27" customHeight="1">
       <c r="F42" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="6:10" ht="29.1" customHeight="1">
       <c r="F43" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -2277,153 +2449,153 @@
     </row>
     <row r="44" spans="6:10" ht="27" customHeight="1">
       <c r="F44" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="6:10" ht="29.1" customHeight="1">
       <c r="F45" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="6:10" ht="27" customHeight="1">
       <c r="F46" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="6:10" ht="29.1" customHeight="1">
       <c r="F47" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="6:10" ht="27" customHeight="1">
       <c r="F48" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="6:10" ht="29.1" customHeight="1">
       <c r="F49" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="6:10" ht="27" customHeight="1">
       <c r="F50" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="6:10" ht="29.1" customHeight="1">
       <c r="F51" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="6:10" ht="27" customHeight="1">
       <c r="F52" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="6:10" ht="29.1" customHeight="1">
       <c r="F53" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="6:10" ht="27" customHeight="1">
       <c r="F54" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55" spans="6:10" ht="29.1" customHeight="1">
       <c r="F55" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -2431,10 +2603,10 @@
     </row>
     <row r="56" spans="6:10" ht="27" customHeight="1">
       <c r="F56" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -2465,7 +2637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F10:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
@@ -2512,10 +2684,10 @@
     </row>
     <row r="12" spans="6:10" ht="30.95" customHeight="1">
       <c r="F12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="H12" s="1">
         <v>32</v>
@@ -2524,15 +2696,15 @@
         <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="6:10" ht="29.1" customHeight="1">
       <c r="F13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="H13" s="1">
         <v>32</v>
@@ -2541,15 +2713,15 @@
         <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="6:10" ht="27.95" customHeight="1">
       <c r="F14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="H14" s="1">
         <v>32</v>
@@ -2558,126 +2730,126 @@
         <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="6:10" ht="27.95" customHeight="1">
       <c r="F15" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="6:10" ht="27.95" customHeight="1">
       <c r="F16" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="6:10" ht="27.95" customHeight="1">
       <c r="F17" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="6:10" ht="29.1" customHeight="1">
       <c r="F18" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="6:10" ht="27" customHeight="1">
       <c r="F19" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="6:10" ht="27" customHeight="1">
       <c r="F20" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="6:10" ht="29.1" customHeight="1">
       <c r="F21" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="6:10" ht="29.1" customHeight="1">
       <c r="F22" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="6:10" ht="33.950000000000003" customHeight="1">
       <c r="F23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>14</v>
@@ -2689,15 +2861,15 @@
         <v>6</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="6:10" ht="26.1" customHeight="1">
       <c r="F24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="H24" s="1">
         <v>32</v>
@@ -2706,184 +2878,184 @@
         <v>6</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="6:10" ht="27" customHeight="1">
       <c r="F25" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="6:10" ht="29.1" customHeight="1">
       <c r="F26" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="6:10" ht="27" customHeight="1">
       <c r="F27" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="6:10" ht="29.1" customHeight="1">
       <c r="F28" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="6:10" ht="27" customHeight="1">
       <c r="F29" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="6:10" ht="29.1" customHeight="1">
       <c r="F30" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="6:10" ht="27" customHeight="1">
       <c r="F31" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="6:10" ht="29.1" customHeight="1">
       <c r="F32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="6:10" ht="27" customHeight="1">
       <c r="F33" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="6:10" ht="29.1" customHeight="1">
       <c r="F34" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="6:10" ht="29.1" customHeight="1">
       <c r="F35" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="6:10" ht="29.1" customHeight="1">
       <c r="F36" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="6:10" ht="29.1" customHeight="1">
       <c r="F37" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="6:10" ht="29.1" customHeight="1">
       <c r="F38" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -2891,10 +3063,10 @@
     </row>
     <row r="39" spans="6:10" ht="27.95" customHeight="1">
       <c r="F39" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
